--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/12,25/18,12,25 ПОКОМ КИ филиалы/дв 18,12,25 лгрсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/12,25/18,12,25 ПОКОМ КИ филиалы/дв 18,12,25 лгрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\18,12,25 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\12,25\18,12,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA419D-E01D-4D42-8337-D15B4AC55D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AF78F-A1D3-4B69-B047-9FC7EE6BB996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
